--- a/Code/Results/Cases/Case_1_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9948378795292689</v>
+        <v>1.040970137894234</v>
       </c>
       <c r="D2">
-        <v>1.025201008390117</v>
+        <v>1.035769314310167</v>
       </c>
       <c r="E2">
-        <v>1.001456722155286</v>
+        <v>1.039240551556146</v>
       </c>
       <c r="F2">
-        <v>1.002108473535192</v>
+        <v>1.048477071803056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041485790035612</v>
+        <v>1.038624342265089</v>
       </c>
       <c r="J2">
-        <v>1.017174092660651</v>
+        <v>1.046053871020944</v>
       </c>
       <c r="K2">
-        <v>1.036320072025075</v>
+        <v>1.038564970202844</v>
       </c>
       <c r="L2">
-        <v>1.012895799763241</v>
+        <v>1.042026301067575</v>
       </c>
       <c r="M2">
-        <v>1.013538511922878</v>
+        <v>1.051236808243076</v>
       </c>
       <c r="N2">
-        <v>1.018618596543728</v>
+        <v>1.04753938750185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002235377920329</v>
+        <v>1.042428100992114</v>
       </c>
       <c r="D3">
-        <v>1.028411938137549</v>
+        <v>1.036401314810634</v>
       </c>
       <c r="E3">
-        <v>1.007608997987778</v>
+        <v>1.040497502991863</v>
       </c>
       <c r="F3">
-        <v>1.009728793562604</v>
+        <v>1.050049162337545</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043605790474197</v>
+        <v>1.038969925624626</v>
       </c>
       <c r="J3">
-        <v>1.022665289221627</v>
+        <v>1.047155136229404</v>
       </c>
       <c r="K3">
-        <v>1.038693744658753</v>
+        <v>1.039006905657447</v>
       </c>
       <c r="L3">
-        <v>1.018145437282522</v>
+        <v>1.043092252588891</v>
       </c>
       <c r="M3">
-        <v>1.020238687834713</v>
+        <v>1.052618986547395</v>
       </c>
       <c r="N3">
-        <v>1.02411759123367</v>
+        <v>1.048642216633223</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00687655921589</v>
+        <v>1.043370028331797</v>
       </c>
       <c r="D4">
-        <v>1.030436895409269</v>
+        <v>1.036809845544632</v>
       </c>
       <c r="E4">
-        <v>1.011475145968499</v>
+        <v>1.041309760673375</v>
       </c>
       <c r="F4">
-        <v>1.014515344563404</v>
+        <v>1.051065266594352</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044926176361133</v>
+        <v>1.039191802847452</v>
       </c>
       <c r="J4">
-        <v>1.026105982731684</v>
+        <v>1.047865862237047</v>
       </c>
       <c r="K4">
-        <v>1.040181344365171</v>
+        <v>1.039291763949868</v>
       </c>
       <c r="L4">
-        <v>1.021437021142621</v>
+        <v>1.043780371278091</v>
       </c>
       <c r="M4">
-        <v>1.02444168272164</v>
+        <v>1.053511720426428</v>
       </c>
       <c r="N4">
-        <v>1.027563170923164</v>
+        <v>1.049353951953318</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008794854017347</v>
+        <v>1.043765669365564</v>
       </c>
       <c r="D5">
-        <v>1.031276144407449</v>
+        <v>1.036981492982147</v>
       </c>
       <c r="E5">
-        <v>1.013074498857319</v>
+        <v>1.04165098201017</v>
       </c>
       <c r="F5">
-        <v>1.016495039237617</v>
+        <v>1.051492170855837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045469513295805</v>
+        <v>1.039284665481417</v>
       </c>
       <c r="J5">
-        <v>1.027526953617496</v>
+        <v>1.048164209975367</v>
       </c>
       <c r="K5">
-        <v>1.040795681597012</v>
+        <v>1.039411255265331</v>
       </c>
       <c r="L5">
-        <v>1.022796937320128</v>
+        <v>1.044069272671989</v>
       </c>
       <c r="M5">
-        <v>1.026178664354978</v>
+        <v>1.053886643002361</v>
       </c>
       <c r="N5">
-        <v>1.028986159750622</v>
+        <v>1.049652723379647</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009115071618992</v>
+        <v>1.043832079202001</v>
       </c>
       <c r="D6">
-        <v>1.031416367809261</v>
+        <v>1.037010307562834</v>
       </c>
       <c r="E6">
-        <v>1.013341555416421</v>
+        <v>1.041708259962601</v>
       </c>
       <c r="F6">
-        <v>1.016825583006665</v>
+        <v>1.051563834588448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045560067902893</v>
+        <v>1.03930023326328</v>
       </c>
       <c r="J6">
-        <v>1.027764085099111</v>
+        <v>1.048214278138555</v>
       </c>
       <c r="K6">
-        <v>1.040898197871959</v>
+        <v>1.039431302984838</v>
       </c>
       <c r="L6">
-        <v>1.023023910580083</v>
+        <v>1.044117758128529</v>
       </c>
       <c r="M6">
-        <v>1.026468602769369</v>
+        <v>1.053949571910175</v>
       </c>
       <c r="N6">
-        <v>1.02922362798614</v>
+        <v>1.049702862645371</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006902318189002</v>
+        <v>1.043375316254171</v>
       </c>
       <c r="D7">
-        <v>1.030448156082694</v>
+        <v>1.036812139493839</v>
       </c>
       <c r="E7">
-        <v>1.011496616771124</v>
+        <v>1.041314321072387</v>
       </c>
       <c r="F7">
-        <v>1.014541922836345</v>
+        <v>1.051070971945442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044933481943472</v>
+        <v>1.039193045309435</v>
       </c>
       <c r="J7">
-        <v>1.026125068196414</v>
+        <v>1.047869850502283</v>
       </c>
       <c r="K7">
-        <v>1.040189595931362</v>
+        <v>1.039293361631217</v>
       </c>
       <c r="L7">
-        <v>1.021455284497621</v>
+        <v>1.043784233094302</v>
       </c>
       <c r="M7">
-        <v>1.024465007856919</v>
+        <v>1.053516731655549</v>
       </c>
       <c r="N7">
-        <v>1.027582283491443</v>
+        <v>1.049357945882348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9973692683147756</v>
+        <v>1.041463172566681</v>
       </c>
       <c r="D8">
-        <v>1.026297439719056</v>
+        <v>1.035982988353406</v>
       </c>
       <c r="E8">
-        <v>1.00356062676508</v>
+        <v>1.039665569754117</v>
       </c>
       <c r="F8">
-        <v>1.004714920577056</v>
+        <v>1.049008608608218</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042213242980159</v>
+        <v>1.038741494680902</v>
       </c>
       <c r="J8">
-        <v>1.01905405870065</v>
+        <v>1.046426438368638</v>
       </c>
       <c r="K8">
-        <v>1.037132598668095</v>
+        <v>1.038714553493386</v>
       </c>
       <c r="L8">
-        <v>1.014692582151012</v>
+        <v>1.042386883432363</v>
       </c>
       <c r="M8">
-        <v>1.015831401804292</v>
+        <v>1.051704263152423</v>
       </c>
       <c r="N8">
-        <v>1.020501232351139</v>
+        <v>1.047912483937912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793577618385895</v>
+        <v>1.038082129536699</v>
       </c>
       <c r="D9">
-        <v>1.01855068638449</v>
+        <v>1.034518701845919</v>
       </c>
       <c r="E9">
-        <v>0.9886222187959514</v>
+        <v>1.036751795036302</v>
       </c>
       <c r="F9">
-        <v>0.9861944976241052</v>
+        <v>1.045365354179897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036998701679473</v>
+        <v>1.037932418764973</v>
       </c>
       <c r="J9">
-        <v>1.005661116684992</v>
+        <v>1.043868430166539</v>
       </c>
       <c r="K9">
-        <v>1.031349794323477</v>
+        <v>1.037686119392562</v>
       </c>
       <c r="L9">
-        <v>1.001902629884342</v>
+        <v>1.039911922310734</v>
       </c>
       <c r="M9">
-        <v>0.9995156023893246</v>
+        <v>1.048497680612506</v>
       </c>
       <c r="N9">
-        <v>1.007089270821627</v>
+        <v>1.045350843070758</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9663779953062694</v>
+        <v>1.035819843178793</v>
       </c>
       <c r="D10">
-        <v>1.013050004788247</v>
+        <v>1.033540301476733</v>
       </c>
       <c r="E10">
-        <v>0.9779031304726953</v>
+        <v>1.034803250961291</v>
       </c>
       <c r="F10">
-        <v>0.9728815582053716</v>
+        <v>1.042929904579893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033195743222986</v>
+        <v>1.037383931910538</v>
       </c>
       <c r="J10">
-        <v>0.9959921458761881</v>
+        <v>1.042152985318462</v>
       </c>
       <c r="K10">
-        <v>1.027187568249752</v>
+        <v>1.036994711344854</v>
       </c>
       <c r="L10">
-        <v>0.9926831507033511</v>
+        <v>1.038253130835219</v>
       </c>
       <c r="M10">
-        <v>0.9877583370912095</v>
+        <v>1.0463509247771</v>
       </c>
       <c r="N10">
-        <v>0.9974065689652281</v>
+        <v>1.043632962094232</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9604855767747936</v>
+        <v>1.034838187197287</v>
       </c>
       <c r="D11">
-        <v>1.010576554406844</v>
+        <v>1.033116107893378</v>
       </c>
       <c r="E11">
-        <v>0.9730500492768857</v>
+        <v>1.033958004551284</v>
       </c>
       <c r="F11">
-        <v>0.9668463482975502</v>
+        <v>1.041873649698652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031460095386307</v>
+        <v>1.037144248607788</v>
       </c>
       <c r="J11">
-        <v>0.9915998793220889</v>
+        <v>1.041407706344718</v>
       </c>
       <c r="K11">
-        <v>1.025301731222277</v>
+        <v>1.036693935545322</v>
       </c>
       <c r="L11">
-        <v>0.9884987496780334</v>
+        <v>1.037532694667692</v>
       </c>
       <c r="M11">
-        <v>0.9824218002178061</v>
+        <v>1.04541911436813</v>
       </c>
       <c r="N11">
-        <v>0.9930080648888223</v>
+        <v>1.042886624738861</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9582518578111543</v>
+        <v>1.034473236400098</v>
       </c>
       <c r="D12">
-        <v>1.009642869624084</v>
+        <v>1.032958461338656</v>
       </c>
       <c r="E12">
-        <v>0.9712124923287809</v>
+        <v>1.033643808339312</v>
       </c>
       <c r="F12">
-        <v>0.964559816609699</v>
+        <v>1.041481046303338</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030800898251696</v>
+        <v>1.037054889228102</v>
       </c>
       <c r="J12">
-        <v>0.9899345423625939</v>
+        <v>1.041130497367826</v>
       </c>
       <c r="K12">
-        <v>1.024587630265719</v>
+        <v>1.036582003478058</v>
       </c>
       <c r="L12">
-        <v>0.9869128085100484</v>
+        <v>1.037264760705029</v>
       </c>
       <c r="M12">
-        <v>0.9803990183879454</v>
+        <v>1.045072651729154</v>
       </c>
       <c r="N12">
-        <v>0.991340362959828</v>
+        <v>1.042609022093426</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9587331078048636</v>
+        <v>1.034551534211914</v>
       </c>
       <c r="D13">
-        <v>1.00984384453056</v>
+        <v>1.032992280795736</v>
       </c>
       <c r="E13">
-        <v>0.9716082887771581</v>
+        <v>1.033711215191702</v>
       </c>
       <c r="F13">
-        <v>0.9650523847669793</v>
+        <v>1.04156527313314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030942974430708</v>
+        <v>1.037074072100018</v>
       </c>
       <c r="J13">
-        <v>0.9902933470485329</v>
+        <v>1.041189976899487</v>
       </c>
       <c r="K13">
-        <v>1.024741442189161</v>
+        <v>1.036606022837931</v>
       </c>
       <c r="L13">
-        <v>0.9872544801547565</v>
+        <v>1.037322248566829</v>
       </c>
       <c r="M13">
-        <v>0.9808348115691976</v>
+        <v>1.04514698497162</v>
       </c>
       <c r="N13">
-        <v>0.9916996771895763</v>
+        <v>1.042668586092844</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9603018810975841</v>
+        <v>1.034808026831369</v>
       </c>
       <c r="D14">
-        <v>1.01049968772831</v>
+        <v>1.033103078462563</v>
       </c>
       <c r="E14">
-        <v>0.9728988878457725</v>
+        <v>1.033932037807553</v>
       </c>
       <c r="F14">
-        <v>0.9666582824505811</v>
+        <v>1.041841202406202</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031405908884893</v>
+        <v>1.037136868884283</v>
       </c>
       <c r="J14">
-        <v>0.9914629313318496</v>
+        <v>1.041384799937706</v>
       </c>
       <c r="K14">
-        <v>1.025242987857323</v>
+        <v>1.03668468750937</v>
       </c>
       <c r="L14">
-        <v>0.9883683187452944</v>
+        <v>1.03751055396872</v>
       </c>
       <c r="M14">
-        <v>0.9822554467487766</v>
+        <v>1.045390482782079</v>
       </c>
       <c r="N14">
-        <v>0.9928709224167286</v>
+        <v>1.042863685802124</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9612623559570028</v>
+        <v>1.034966017721287</v>
       </c>
       <c r="D15">
-        <v>1.010901757659383</v>
+        <v>1.033171333640827</v>
       </c>
       <c r="E15">
-        <v>0.9736893427612632</v>
+        <v>1.03406806269543</v>
       </c>
       <c r="F15">
-        <v>0.9676416610488279</v>
+        <v>1.042011176361664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031689179964318</v>
+        <v>1.037175516221356</v>
       </c>
       <c r="J15">
-        <v>0.9921789688775092</v>
+        <v>1.041504786398242</v>
       </c>
       <c r="K15">
-        <v>1.025550168072063</v>
+        <v>1.036733127466097</v>
       </c>
       <c r="L15">
-        <v>0.9890503054935699</v>
+        <v>1.037626530979405</v>
       </c>
       <c r="M15">
-        <v>0.9831252548593082</v>
+        <v>1.045540463612046</v>
       </c>
       <c r="N15">
-        <v>0.9935879768178336</v>
+        <v>1.042983842657196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9667629831775751</v>
+        <v>1.035884948059973</v>
       </c>
       <c r="D16">
-        <v>1.01321213278482</v>
+        <v>1.033568442344209</v>
       </c>
       <c r="E16">
-        <v>0.978220498530937</v>
+        <v>1.034859314721759</v>
       </c>
       <c r="F16">
-        <v>0.9732760540986617</v>
+        <v>1.042999968337844</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033308964915619</v>
+        <v>1.037399792692373</v>
       </c>
       <c r="J16">
-        <v>0.9962790710654263</v>
+        <v>1.042202394217083</v>
       </c>
       <c r="K16">
-        <v>1.027310876934377</v>
+        <v>1.037014643399978</v>
       </c>
       <c r="L16">
-        <v>0.9929565755286491</v>
+        <v>1.03830089760353</v>
       </c>
       <c r="M16">
-        <v>0.9881070306292413</v>
+        <v>1.046412717808826</v>
       </c>
       <c r="N16">
-        <v>0.997693901621146</v>
+        <v>1.043682441159157</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9701377915802949</v>
+        <v>1.036460808037008</v>
       </c>
       <c r="D17">
-        <v>1.014636061525875</v>
+        <v>1.033817392878802</v>
       </c>
       <c r="E17">
-        <v>0.9810040437352956</v>
+        <v>1.035355236235519</v>
       </c>
       <c r="F17">
-        <v>0.9767351677912225</v>
+        <v>1.043619752486899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034300444844869</v>
+        <v>1.037539888984319</v>
       </c>
       <c r="J17">
-        <v>0.9987939536785113</v>
+        <v>1.042639316562991</v>
       </c>
       <c r="K17">
-        <v>1.028392243552437</v>
+        <v>1.037190857312368</v>
       </c>
       <c r="L17">
-        <v>0.9953535456287991</v>
+        <v>1.038723325108238</v>
       </c>
       <c r="M17">
-        <v>0.991163792388567</v>
+        <v>1.046959251136034</v>
       </c>
       <c r="N17">
-        <v>1.000212355656003</v>
+        <v>1.044119983984912</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9720803148828995</v>
+        <v>1.036796498197095</v>
       </c>
       <c r="D18">
-        <v>1.015457861859829</v>
+        <v>1.033962549508954</v>
       </c>
       <c r="E18">
-        <v>0.9826074489596406</v>
+        <v>1.035644353237879</v>
       </c>
       <c r="F18">
-        <v>0.9787270067939822</v>
+        <v>1.043981099766248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034870261253995</v>
+        <v>1.03762139411403</v>
       </c>
       <c r="J18">
-        <v>1.000241231871158</v>
+        <v>1.04289392713603</v>
       </c>
       <c r="K18">
-        <v>1.029015002353756</v>
+        <v>1.037293505743065</v>
       </c>
       <c r="L18">
-        <v>0.9967333094698874</v>
+        <v>1.03896951110993</v>
       </c>
       <c r="M18">
-        <v>0.9929233289736318</v>
+        <v>1.047277818177252</v>
       </c>
       <c r="N18">
-        <v>1.001661689149688</v>
+        <v>1.044374956134168</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9727383806925345</v>
+        <v>1.036910926343296</v>
       </c>
       <c r="D19">
-        <v>1.015736622938715</v>
+        <v>1.034012035379609</v>
       </c>
       <c r="E19">
-        <v>0.9831508318570982</v>
+        <v>1.035742910162168</v>
       </c>
       <c r="F19">
-        <v>0.9794019119331991</v>
+        <v>1.044104282603602</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035063144765522</v>
+        <v>1.037649149586542</v>
       </c>
       <c r="J19">
-        <v>1.000731473877313</v>
+        <v>1.042980702448598</v>
       </c>
       <c r="K19">
-        <v>1.029226022772156</v>
+        <v>1.037328483493056</v>
       </c>
       <c r="L19">
-        <v>0.9972007393545201</v>
+        <v>1.039053418939331</v>
       </c>
       <c r="M19">
-        <v>0.9935194160079441</v>
+        <v>1.04738640482473</v>
       </c>
       <c r="N19">
-        <v>1.002152627355724</v>
+        <v>1.044461854677634</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9697784182673738</v>
+        <v>1.036399044382321</v>
       </c>
       <c r="D20">
-        <v>1.01448420080555</v>
+        <v>1.033790688229455</v>
       </c>
       <c r="E20">
-        <v>0.9807075051054892</v>
+        <v>1.035302043661149</v>
       </c>
       <c r="F20">
-        <v>0.9763667346187382</v>
+        <v>1.043553272372773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034194955054717</v>
+        <v>1.037524879783413</v>
       </c>
       <c r="J20">
-        <v>0.9985261791507491</v>
+        <v>1.042592463682263</v>
       </c>
       <c r="K20">
-        <v>1.028277056202367</v>
+        <v>1.037171965115115</v>
       </c>
       <c r="L20">
-        <v>0.9950982901265348</v>
+        <v>1.038678024277714</v>
       </c>
       <c r="M20">
-        <v>0.9908382781571341</v>
+        <v>1.046900635748709</v>
       </c>
       <c r="N20">
-        <v>0.9999442008576968</v>
+        <v>1.044073064567719</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9598411951608924</v>
+        <v>1.034732505054849</v>
       </c>
       <c r="D21">
-        <v>1.010306980719653</v>
+        <v>1.033070453588325</v>
       </c>
       <c r="E21">
-        <v>0.9725198293135626</v>
+        <v>1.033867017565574</v>
       </c>
       <c r="F21">
-        <v>0.9661866580076078</v>
+        <v>1.041759955457978</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031269996429587</v>
+        <v>1.037118385931959</v>
       </c>
       <c r="J21">
-        <v>0.9911194784070566</v>
+        <v>1.041327439929232</v>
       </c>
       <c r="K21">
-        <v>1.025095680314528</v>
+        <v>1.036661528548296</v>
       </c>
       <c r="L21">
-        <v>0.9880412194831035</v>
+        <v>1.037455111932336</v>
       </c>
       <c r="M21">
-        <v>0.9818382565893086</v>
+        <v>1.045318788387564</v>
       </c>
       <c r="N21">
-        <v>0.9925269817493878</v>
+        <v>1.042806244335859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9533303421901838</v>
+        <v>1.033682829421452</v>
       </c>
       <c r="D22">
-        <v>1.007593486739187</v>
+        <v>1.032617137517595</v>
       </c>
       <c r="E22">
-        <v>0.9671680821415053</v>
+        <v>1.032963402189435</v>
       </c>
       <c r="F22">
-        <v>0.9595244271844968</v>
+        <v>1.040630897775974</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02934638055291</v>
+        <v>1.036860894888534</v>
       </c>
       <c r="J22">
-        <v>0.9862649319352285</v>
+        <v>1.04052987215331</v>
       </c>
       <c r="K22">
-        <v>1.023016001285165</v>
+        <v>1.036339377933636</v>
       </c>
       <c r="L22">
-        <v>0.9834192628512543</v>
+        <v>1.036684295118138</v>
       </c>
       <c r="M22">
-        <v>0.9759427398005169</v>
+        <v>1.044322207598358</v>
       </c>
       <c r="N22">
-        <v>0.9876655412647453</v>
+        <v>1.042007543922212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.956808330884812</v>
+        <v>1.034239461272559</v>
       </c>
       <c r="D23">
-        <v>1.009040651525599</v>
+        <v>1.032857494425407</v>
       </c>
       <c r="E23">
-        <v>0.9700256211287754</v>
+        <v>1.03344255669232</v>
       </c>
       <c r="F23">
-        <v>0.9630825373716215</v>
+        <v>1.041229580667423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0303745654502</v>
+        <v>1.036997577717449</v>
       </c>
       <c r="J23">
-        <v>0.988858261111077</v>
+        <v>1.040952888396599</v>
       </c>
       <c r="K23">
-        <v>1.024126400821351</v>
+        <v>1.036510272104714</v>
       </c>
       <c r="L23">
-        <v>0.9858880081100314</v>
+        <v>1.037093104049316</v>
       </c>
       <c r="M23">
-        <v>0.9790918781900187</v>
+        <v>1.044850707391204</v>
       </c>
       <c r="N23">
-        <v>0.9902625532654828</v>
+        <v>1.042431160897087</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9699408834714797</v>
+        <v>1.036426953335096</v>
       </c>
       <c r="D24">
-        <v>1.014552847092179</v>
+        <v>1.033802755071998</v>
       </c>
       <c r="E24">
-        <v>0.9808415603099321</v>
+        <v>1.035326079546102</v>
       </c>
       <c r="F24">
-        <v>0.9765332931455056</v>
+        <v>1.043583312376557</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034242647524373</v>
+        <v>1.037531662446304</v>
       </c>
       <c r="J24">
-        <v>0.9986472353152381</v>
+        <v>1.042613635220517</v>
       </c>
       <c r="K24">
-        <v>1.028329129002346</v>
+        <v>1.037180502100595</v>
       </c>
       <c r="L24">
-        <v>0.9952136855968767</v>
+        <v>1.038698494418521</v>
       </c>
       <c r="M24">
-        <v>0.9909854361332253</v>
+        <v>1.04692712218867</v>
       </c>
       <c r="N24">
-        <v>1.000065428935825</v>
+        <v>1.044094266171986</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9841728879268752</v>
+        <v>1.038957631941373</v>
       </c>
       <c r="D25">
-        <v>1.020609031579229</v>
+        <v>1.034897640897746</v>
       </c>
       <c r="E25">
-        <v>0.9926085920879086</v>
+        <v>1.037506113202995</v>
       </c>
       <c r="F25">
-        <v>0.9911401194651071</v>
+        <v>1.046308352255047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038400854852698</v>
+        <v>1.03814318112776</v>
       </c>
       <c r="J25">
-        <v>1.009244895020694</v>
+        <v>1.044531493084362</v>
       </c>
       <c r="K25">
-        <v>1.032895626266575</v>
+        <v>1.03795300874248</v>
       </c>
       <c r="L25">
-        <v>1.005322744149372</v>
+        <v>1.040553290293439</v>
       </c>
       <c r="M25">
-        <v>1.00387754854733</v>
+        <v>1.049328218896717</v>
       </c>
       <c r="N25">
-        <v>1.01067813853363</v>
+        <v>1.046014847613979</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040970137894234</v>
+        <v>0.9948378795292689</v>
       </c>
       <c r="D2">
-        <v>1.035769314310167</v>
+        <v>1.025201008390117</v>
       </c>
       <c r="E2">
-        <v>1.039240551556146</v>
+        <v>1.001456722155285</v>
       </c>
       <c r="F2">
-        <v>1.048477071803056</v>
+        <v>1.002108473535192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038624342265089</v>
+        <v>1.041485790035612</v>
       </c>
       <c r="J2">
-        <v>1.046053871020944</v>
+        <v>1.01717409266065</v>
       </c>
       <c r="K2">
-        <v>1.038564970202844</v>
+        <v>1.036320072025075</v>
       </c>
       <c r="L2">
-        <v>1.042026301067575</v>
+        <v>1.012895799763241</v>
       </c>
       <c r="M2">
-        <v>1.051236808243076</v>
+        <v>1.013538511922878</v>
       </c>
       <c r="N2">
-        <v>1.04753938750185</v>
+        <v>1.018618596543727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042428100992114</v>
+        <v>1.002235377920328</v>
       </c>
       <c r="D3">
-        <v>1.036401314810634</v>
+        <v>1.028411938137549</v>
       </c>
       <c r="E3">
-        <v>1.040497502991863</v>
+        <v>1.007608997987776</v>
       </c>
       <c r="F3">
-        <v>1.050049162337545</v>
+        <v>1.009728793562603</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038969925624626</v>
+        <v>1.043605790474197</v>
       </c>
       <c r="J3">
-        <v>1.047155136229404</v>
+        <v>1.022665289221626</v>
       </c>
       <c r="K3">
-        <v>1.039006905657447</v>
+        <v>1.038693744658753</v>
       </c>
       <c r="L3">
-        <v>1.043092252588891</v>
+        <v>1.018145437282521</v>
       </c>
       <c r="M3">
-        <v>1.052618986547395</v>
+        <v>1.020238687834712</v>
       </c>
       <c r="N3">
-        <v>1.048642216633223</v>
+        <v>1.024117591233669</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043370028331797</v>
+        <v>1.00687655921589</v>
       </c>
       <c r="D4">
-        <v>1.036809845544632</v>
+        <v>1.030436895409269</v>
       </c>
       <c r="E4">
-        <v>1.041309760673375</v>
+        <v>1.011475145968499</v>
       </c>
       <c r="F4">
-        <v>1.051065266594352</v>
+        <v>1.014515344563404</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039191802847452</v>
+        <v>1.044926176361133</v>
       </c>
       <c r="J4">
-        <v>1.047865862237047</v>
+        <v>1.026105982731685</v>
       </c>
       <c r="K4">
-        <v>1.039291763949868</v>
+        <v>1.04018134436517</v>
       </c>
       <c r="L4">
-        <v>1.043780371278091</v>
+        <v>1.021437021142621</v>
       </c>
       <c r="M4">
-        <v>1.053511720426428</v>
+        <v>1.024441682721641</v>
       </c>
       <c r="N4">
-        <v>1.049353951953318</v>
+        <v>1.027563170923164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043765669365564</v>
+        <v>1.008794854017348</v>
       </c>
       <c r="D5">
-        <v>1.036981492982147</v>
+        <v>1.031276144407449</v>
       </c>
       <c r="E5">
-        <v>1.04165098201017</v>
+        <v>1.013074498857321</v>
       </c>
       <c r="F5">
-        <v>1.051492170855837</v>
+        <v>1.016495039237618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039284665481417</v>
+        <v>1.045469513295806</v>
       </c>
       <c r="J5">
-        <v>1.048164209975367</v>
+        <v>1.027526953617497</v>
       </c>
       <c r="K5">
-        <v>1.039411255265331</v>
+        <v>1.040795681597012</v>
       </c>
       <c r="L5">
-        <v>1.044069272671989</v>
+        <v>1.022796937320129</v>
       </c>
       <c r="M5">
-        <v>1.053886643002361</v>
+        <v>1.026178664354979</v>
       </c>
       <c r="N5">
-        <v>1.049652723379647</v>
+        <v>1.028986159750623</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043832079202001</v>
+        <v>1.009115071618992</v>
       </c>
       <c r="D6">
-        <v>1.037010307562834</v>
+        <v>1.031416367809262</v>
       </c>
       <c r="E6">
-        <v>1.041708259962601</v>
+        <v>1.013341555416422</v>
       </c>
       <c r="F6">
-        <v>1.051563834588448</v>
+        <v>1.016825583006665</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03930023326328</v>
+        <v>1.045560067902892</v>
       </c>
       <c r="J6">
-        <v>1.048214278138555</v>
+        <v>1.027764085099111</v>
       </c>
       <c r="K6">
-        <v>1.039431302984838</v>
+        <v>1.040898197871959</v>
       </c>
       <c r="L6">
-        <v>1.044117758128529</v>
+        <v>1.023023910580083</v>
       </c>
       <c r="M6">
-        <v>1.053949571910175</v>
+        <v>1.026468602769369</v>
       </c>
       <c r="N6">
-        <v>1.049702862645371</v>
+        <v>1.02922362798614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043375316254171</v>
+        <v>1.006902318189002</v>
       </c>
       <c r="D7">
-        <v>1.036812139493839</v>
+        <v>1.030448156082694</v>
       </c>
       <c r="E7">
-        <v>1.041314321072387</v>
+        <v>1.011496616771123</v>
       </c>
       <c r="F7">
-        <v>1.051070971945442</v>
+        <v>1.014541922836344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039193045309435</v>
+        <v>1.044933481943472</v>
       </c>
       <c r="J7">
-        <v>1.047869850502283</v>
+        <v>1.026125068196413</v>
       </c>
       <c r="K7">
-        <v>1.039293361631217</v>
+        <v>1.040189595931362</v>
       </c>
       <c r="L7">
-        <v>1.043784233094302</v>
+        <v>1.02145528449762</v>
       </c>
       <c r="M7">
-        <v>1.053516731655549</v>
+        <v>1.024465007856919</v>
       </c>
       <c r="N7">
-        <v>1.049357945882348</v>
+        <v>1.027582283491443</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041463172566681</v>
+        <v>0.9973692683147756</v>
       </c>
       <c r="D8">
-        <v>1.035982988353406</v>
+        <v>1.026297439719056</v>
       </c>
       <c r="E8">
-        <v>1.039665569754117</v>
+        <v>1.00356062676508</v>
       </c>
       <c r="F8">
-        <v>1.049008608608218</v>
+        <v>1.004714920577056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038741494680902</v>
+        <v>1.04221324298016</v>
       </c>
       <c r="J8">
-        <v>1.046426438368638</v>
+        <v>1.01905405870065</v>
       </c>
       <c r="K8">
-        <v>1.038714553493386</v>
+        <v>1.037132598668096</v>
       </c>
       <c r="L8">
-        <v>1.042386883432363</v>
+        <v>1.014692582151012</v>
       </c>
       <c r="M8">
-        <v>1.051704263152423</v>
+        <v>1.015831401804292</v>
       </c>
       <c r="N8">
-        <v>1.047912483937912</v>
+        <v>1.020501232351139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038082129536699</v>
+        <v>0.9793577618385902</v>
       </c>
       <c r="D9">
-        <v>1.034518701845919</v>
+        <v>1.01855068638449</v>
       </c>
       <c r="E9">
-        <v>1.036751795036302</v>
+        <v>0.9886222187959522</v>
       </c>
       <c r="F9">
-        <v>1.045365354179897</v>
+        <v>0.9861944976241064</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037932418764973</v>
+        <v>1.036998701679473</v>
       </c>
       <c r="J9">
-        <v>1.043868430166539</v>
+        <v>1.005661116684993</v>
       </c>
       <c r="K9">
-        <v>1.037686119392562</v>
+        <v>1.031349794323477</v>
       </c>
       <c r="L9">
-        <v>1.039911922310734</v>
+        <v>1.001902629884343</v>
       </c>
       <c r="M9">
-        <v>1.048497680612506</v>
+        <v>0.9995156023893257</v>
       </c>
       <c r="N9">
-        <v>1.045350843070758</v>
+        <v>1.007089270821628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035819843178793</v>
+        <v>0.9663779953062701</v>
       </c>
       <c r="D10">
-        <v>1.033540301476733</v>
+        <v>1.013050004788247</v>
       </c>
       <c r="E10">
-        <v>1.034803250961291</v>
+        <v>0.9779031304726956</v>
       </c>
       <c r="F10">
-        <v>1.042929904579893</v>
+        <v>0.9728815582053716</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037383931910538</v>
+        <v>1.033195743222986</v>
       </c>
       <c r="J10">
-        <v>1.042152985318462</v>
+        <v>0.9959921458761887</v>
       </c>
       <c r="K10">
-        <v>1.036994711344854</v>
+        <v>1.027187568249753</v>
       </c>
       <c r="L10">
-        <v>1.038253130835219</v>
+        <v>0.9926831507033514</v>
       </c>
       <c r="M10">
-        <v>1.0463509247771</v>
+        <v>0.9877583370912094</v>
       </c>
       <c r="N10">
-        <v>1.043632962094232</v>
+        <v>0.9974065689652288</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034838187197287</v>
+        <v>0.9604855767747936</v>
       </c>
       <c r="D11">
-        <v>1.033116107893378</v>
+        <v>1.010576554406844</v>
       </c>
       <c r="E11">
-        <v>1.033958004551284</v>
+        <v>0.9730500492768857</v>
       </c>
       <c r="F11">
-        <v>1.041873649698652</v>
+        <v>0.9668463482975499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037144248607788</v>
+        <v>1.031460095386307</v>
       </c>
       <c r="J11">
-        <v>1.041407706344718</v>
+        <v>0.9915998793220888</v>
       </c>
       <c r="K11">
-        <v>1.036693935545322</v>
+        <v>1.025301731222277</v>
       </c>
       <c r="L11">
-        <v>1.037532694667692</v>
+        <v>0.9884987496780335</v>
       </c>
       <c r="M11">
-        <v>1.04541911436813</v>
+        <v>0.9824218002178059</v>
       </c>
       <c r="N11">
-        <v>1.042886624738861</v>
+        <v>0.9930080648888223</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034473236400098</v>
+        <v>0.9582518578111539</v>
       </c>
       <c r="D12">
-        <v>1.032958461338656</v>
+        <v>1.009642869624084</v>
       </c>
       <c r="E12">
-        <v>1.033643808339312</v>
+        <v>0.97121249232878</v>
       </c>
       <c r="F12">
-        <v>1.041481046303338</v>
+        <v>0.9645598166096991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037054889228102</v>
+        <v>1.030800898251697</v>
       </c>
       <c r="J12">
-        <v>1.041130497367826</v>
+        <v>0.9899345423625937</v>
       </c>
       <c r="K12">
-        <v>1.036582003478058</v>
+        <v>1.024587630265719</v>
       </c>
       <c r="L12">
-        <v>1.037264760705029</v>
+        <v>0.9869128085100475</v>
       </c>
       <c r="M12">
-        <v>1.045072651729154</v>
+        <v>0.9803990183879452</v>
       </c>
       <c r="N12">
-        <v>1.042609022093426</v>
+        <v>0.9913403629598275</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034551534211914</v>
+        <v>0.9587331078048634</v>
       </c>
       <c r="D13">
-        <v>1.032992280795736</v>
+        <v>1.00984384453056</v>
       </c>
       <c r="E13">
-        <v>1.033711215191702</v>
+        <v>0.9716082887771577</v>
       </c>
       <c r="F13">
-        <v>1.04156527313314</v>
+        <v>0.9650523847669786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037074072100018</v>
+        <v>1.030942974430708</v>
       </c>
       <c r="J13">
-        <v>1.041189976899487</v>
+        <v>0.9902933470485326</v>
       </c>
       <c r="K13">
-        <v>1.036606022837931</v>
+        <v>1.024741442189161</v>
       </c>
       <c r="L13">
-        <v>1.037322248566829</v>
+        <v>0.9872544801547561</v>
       </c>
       <c r="M13">
-        <v>1.04514698497162</v>
+        <v>0.9808348115691969</v>
       </c>
       <c r="N13">
-        <v>1.042668586092844</v>
+        <v>0.9916996771895759</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034808026831369</v>
+        <v>0.9603018810975832</v>
       </c>
       <c r="D14">
-        <v>1.033103078462563</v>
+        <v>1.01049968772831</v>
       </c>
       <c r="E14">
-        <v>1.033932037807553</v>
+        <v>0.9728988878457718</v>
       </c>
       <c r="F14">
-        <v>1.041841202406202</v>
+        <v>0.9666582824505806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037136868884283</v>
+        <v>1.031405908884893</v>
       </c>
       <c r="J14">
-        <v>1.041384799937706</v>
+        <v>0.991462931331849</v>
       </c>
       <c r="K14">
-        <v>1.03668468750937</v>
+        <v>1.025242987857323</v>
       </c>
       <c r="L14">
-        <v>1.03751055396872</v>
+        <v>0.9883683187452939</v>
       </c>
       <c r="M14">
-        <v>1.045390482782079</v>
+        <v>0.9822554467487761</v>
       </c>
       <c r="N14">
-        <v>1.042863685802124</v>
+        <v>0.992870922416728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034966017721287</v>
+        <v>0.9612623559570035</v>
       </c>
       <c r="D15">
-        <v>1.033171333640827</v>
+        <v>1.010901757659383</v>
       </c>
       <c r="E15">
-        <v>1.03406806269543</v>
+        <v>0.973689342761264</v>
       </c>
       <c r="F15">
-        <v>1.042011176361664</v>
+        <v>0.9676416610488279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037175516221356</v>
+        <v>1.031689179964318</v>
       </c>
       <c r="J15">
-        <v>1.041504786398242</v>
+        <v>0.9921789688775097</v>
       </c>
       <c r="K15">
-        <v>1.036733127466097</v>
+        <v>1.025550168072063</v>
       </c>
       <c r="L15">
-        <v>1.037626530979405</v>
+        <v>0.9890503054935706</v>
       </c>
       <c r="M15">
-        <v>1.045540463612046</v>
+        <v>0.9831252548593081</v>
       </c>
       <c r="N15">
-        <v>1.042983842657196</v>
+        <v>0.9935879768178341</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035884948059973</v>
+        <v>0.9667629831775745</v>
       </c>
       <c r="D16">
-        <v>1.033568442344209</v>
+        <v>1.01321213278482</v>
       </c>
       <c r="E16">
-        <v>1.034859314721759</v>
+        <v>0.978220498530936</v>
       </c>
       <c r="F16">
-        <v>1.042999968337844</v>
+        <v>0.9732760540986611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037399792692373</v>
+        <v>1.033308964915619</v>
       </c>
       <c r="J16">
-        <v>1.042202394217083</v>
+        <v>0.9962790710654259</v>
       </c>
       <c r="K16">
-        <v>1.037014643399978</v>
+        <v>1.027310876934377</v>
       </c>
       <c r="L16">
-        <v>1.03830089760353</v>
+        <v>0.9929565755286485</v>
       </c>
       <c r="M16">
-        <v>1.046412717808826</v>
+        <v>0.9881070306292409</v>
       </c>
       <c r="N16">
-        <v>1.043682441159157</v>
+        <v>0.9976939016211455</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036460808037008</v>
+        <v>0.9701377915802936</v>
       </c>
       <c r="D17">
-        <v>1.033817392878802</v>
+        <v>1.014636061525875</v>
       </c>
       <c r="E17">
-        <v>1.035355236235519</v>
+        <v>0.9810040437352945</v>
       </c>
       <c r="F17">
-        <v>1.043619752486899</v>
+        <v>0.9767351677912217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037539888984319</v>
+        <v>1.034300444844868</v>
       </c>
       <c r="J17">
-        <v>1.042639316562991</v>
+        <v>0.9987939536785101</v>
       </c>
       <c r="K17">
-        <v>1.037190857312368</v>
+        <v>1.028392243552436</v>
       </c>
       <c r="L17">
-        <v>1.038723325108238</v>
+        <v>0.9953535456287979</v>
       </c>
       <c r="M17">
-        <v>1.046959251136034</v>
+        <v>0.9911637923885663</v>
       </c>
       <c r="N17">
-        <v>1.044119983984912</v>
+        <v>1.000212355656001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036796498197095</v>
+        <v>0.9720803148828981</v>
       </c>
       <c r="D18">
-        <v>1.033962549508954</v>
+        <v>1.015457861859829</v>
       </c>
       <c r="E18">
-        <v>1.035644353237879</v>
+        <v>0.9826074489596391</v>
       </c>
       <c r="F18">
-        <v>1.043981099766248</v>
+        <v>0.9787270067939812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03762139411403</v>
+        <v>1.034870261253995</v>
       </c>
       <c r="J18">
-        <v>1.04289392713603</v>
+        <v>1.000241231871157</v>
       </c>
       <c r="K18">
-        <v>1.037293505743065</v>
+        <v>1.029015002353756</v>
       </c>
       <c r="L18">
-        <v>1.03896951110993</v>
+        <v>0.996733309469886</v>
       </c>
       <c r="M18">
-        <v>1.047277818177252</v>
+        <v>0.9929233289736308</v>
       </c>
       <c r="N18">
-        <v>1.044374956134168</v>
+        <v>1.001661689149687</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036910926343296</v>
+        <v>0.9727383806925342</v>
       </c>
       <c r="D19">
-        <v>1.034012035379609</v>
+        <v>1.015736622938715</v>
       </c>
       <c r="E19">
-        <v>1.035742910162168</v>
+        <v>0.983150831857098</v>
       </c>
       <c r="F19">
-        <v>1.044104282603602</v>
+        <v>0.9794019119331988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037649149586542</v>
+        <v>1.035063144765522</v>
       </c>
       <c r="J19">
-        <v>1.042980702448598</v>
+        <v>1.000731473877313</v>
       </c>
       <c r="K19">
-        <v>1.037328483493056</v>
+        <v>1.029226022772156</v>
       </c>
       <c r="L19">
-        <v>1.039053418939331</v>
+        <v>0.99720073935452</v>
       </c>
       <c r="M19">
-        <v>1.04738640482473</v>
+        <v>0.9935194160079439</v>
       </c>
       <c r="N19">
-        <v>1.044461854677634</v>
+        <v>1.002152627355723</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036399044382321</v>
+        <v>0.9697784182673737</v>
       </c>
       <c r="D20">
-        <v>1.033790688229455</v>
+        <v>1.01448420080555</v>
       </c>
       <c r="E20">
-        <v>1.035302043661149</v>
+        <v>0.9807075051054889</v>
       </c>
       <c r="F20">
-        <v>1.043553272372773</v>
+        <v>0.9763667346187378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037524879783413</v>
+        <v>1.034194955054717</v>
       </c>
       <c r="J20">
-        <v>1.042592463682263</v>
+        <v>0.9985261791507488</v>
       </c>
       <c r="K20">
-        <v>1.037171965115115</v>
+        <v>1.028277056202366</v>
       </c>
       <c r="L20">
-        <v>1.038678024277714</v>
+        <v>0.9950982901265344</v>
       </c>
       <c r="M20">
-        <v>1.046900635748709</v>
+        <v>0.9908382781571339</v>
       </c>
       <c r="N20">
-        <v>1.044073064567719</v>
+        <v>0.9999442008576968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.034732505054849</v>
+        <v>0.9598411951608916</v>
       </c>
       <c r="D21">
-        <v>1.033070453588325</v>
+        <v>1.010306980719652</v>
       </c>
       <c r="E21">
-        <v>1.033867017565574</v>
+        <v>0.9725198293135614</v>
       </c>
       <c r="F21">
-        <v>1.041759955457978</v>
+        <v>0.9661866580076071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037118385931959</v>
+        <v>1.031269996429587</v>
       </c>
       <c r="J21">
-        <v>1.041327439929232</v>
+        <v>0.9911194784070557</v>
       </c>
       <c r="K21">
-        <v>1.036661528548296</v>
+        <v>1.025095680314528</v>
       </c>
       <c r="L21">
-        <v>1.037455111932336</v>
+        <v>0.9880412194831024</v>
       </c>
       <c r="M21">
-        <v>1.045318788387564</v>
+        <v>0.9818382565893078</v>
       </c>
       <c r="N21">
-        <v>1.042806244335859</v>
+        <v>0.992526981749387</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033682829421452</v>
+        <v>0.9533303421901829</v>
       </c>
       <c r="D22">
-        <v>1.032617137517595</v>
+        <v>1.007593486739186</v>
       </c>
       <c r="E22">
-        <v>1.032963402189435</v>
+        <v>0.9671680821415046</v>
       </c>
       <c r="F22">
-        <v>1.040630897775974</v>
+        <v>0.9595244271844962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036860894888534</v>
+        <v>1.02934638055291</v>
       </c>
       <c r="J22">
-        <v>1.04052987215331</v>
+        <v>0.9862649319352276</v>
       </c>
       <c r="K22">
-        <v>1.036339377933636</v>
+        <v>1.023016001285165</v>
       </c>
       <c r="L22">
-        <v>1.036684295118138</v>
+        <v>0.9834192628512535</v>
       </c>
       <c r="M22">
-        <v>1.044322207598358</v>
+        <v>0.9759427398005164</v>
       </c>
       <c r="N22">
-        <v>1.042007543922212</v>
+        <v>0.9876655412647442</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034239461272559</v>
+        <v>0.9568083308848128</v>
       </c>
       <c r="D23">
-        <v>1.032857494425407</v>
+        <v>1.0090406515256</v>
       </c>
       <c r="E23">
-        <v>1.03344255669232</v>
+        <v>0.970025621128776</v>
       </c>
       <c r="F23">
-        <v>1.041229580667423</v>
+        <v>0.9630825373716217</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036997577717449</v>
+        <v>1.0303745654502</v>
       </c>
       <c r="J23">
-        <v>1.040952888396599</v>
+        <v>0.9888582611110777</v>
       </c>
       <c r="K23">
-        <v>1.036510272104714</v>
+        <v>1.024126400821351</v>
       </c>
       <c r="L23">
-        <v>1.037093104049316</v>
+        <v>0.9858880081100317</v>
       </c>
       <c r="M23">
-        <v>1.044850707391204</v>
+        <v>0.9790918781900191</v>
       </c>
       <c r="N23">
-        <v>1.042431160897087</v>
+        <v>0.9902625532654832</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036426953335096</v>
+        <v>0.9699408834714797</v>
       </c>
       <c r="D24">
-        <v>1.033802755071998</v>
+        <v>1.014552847092179</v>
       </c>
       <c r="E24">
-        <v>1.035326079546102</v>
+        <v>0.9808415603099322</v>
       </c>
       <c r="F24">
-        <v>1.043583312376557</v>
+        <v>0.9765332931455057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037531662446304</v>
+        <v>1.034242647524373</v>
       </c>
       <c r="J24">
-        <v>1.042613635220517</v>
+        <v>0.9986472353152382</v>
       </c>
       <c r="K24">
-        <v>1.037180502100595</v>
+        <v>1.028329129002346</v>
       </c>
       <c r="L24">
-        <v>1.038698494418521</v>
+        <v>0.9952136855968767</v>
       </c>
       <c r="M24">
-        <v>1.04692712218867</v>
+        <v>0.9909854361332257</v>
       </c>
       <c r="N24">
-        <v>1.044094266171986</v>
+        <v>1.000065428935825</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038957631941373</v>
+        <v>0.9841728879268751</v>
       </c>
       <c r="D25">
-        <v>1.034897640897746</v>
+        <v>1.020609031579229</v>
       </c>
       <c r="E25">
-        <v>1.037506113202995</v>
+        <v>0.9926085920879082</v>
       </c>
       <c r="F25">
-        <v>1.046308352255047</v>
+        <v>0.9911401194651072</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03814318112776</v>
+        <v>1.038400854852698</v>
       </c>
       <c r="J25">
-        <v>1.044531493084362</v>
+        <v>1.009244895020693</v>
       </c>
       <c r="K25">
-        <v>1.03795300874248</v>
+        <v>1.032895626266575</v>
       </c>
       <c r="L25">
-        <v>1.040553290293439</v>
+        <v>1.005322744149372</v>
       </c>
       <c r="M25">
-        <v>1.049328218896717</v>
+        <v>1.00387754854733</v>
       </c>
       <c r="N25">
-        <v>1.046014847613979</v>
+        <v>1.01067813853363</v>
       </c>
     </row>
   </sheetData>
